--- a/Udhyam.xlsx
+++ b/Udhyam.xlsx
@@ -16,19 +16,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -48,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -72,13 +66,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -86,29 +73,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,208 +463,212 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>First_Name</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Last_Name</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>Phone_Number_New</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Valid_Email</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>PAN_Number</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>DOB</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Business_open_date</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Account_Number</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>Confirm_Account</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>IFSC_Code</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>Approve_amount</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>Address</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>Business_Address</t>
         </is>
       </c>
-      <c r="N1" s="7" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>Business_desc</t>
         </is>
       </c>
-      <c r="O1" s="7" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>Pincode</t>
         </is>
       </c>
-      <c r="P1" s="7" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>Salary</t>
         </is>
       </c>
-      <c r="Q1" s="7" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t>Turn_Over</t>
         </is>
       </c>
-      <c r="R1" s="7" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>Valid_UPI</t>
         </is>
       </c>
-      <c r="S1" s="7" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>Udhyam_Number</t>
         </is>
       </c>
-      <c r="T1" s="7" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>Password</t>
         </is>
       </c>
-      <c r="U1" s="7" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>Invoice_Number</t>
         </is>
       </c>
-      <c r="V1" s="7" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t>Company_Name</t>
         </is>
       </c>
-      <c r="W1" s="7" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>Office_Phone</t>
         </is>
       </c>
-      <c r="X1" s="7" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>Business_link</t>
         </is>
       </c>
-      <c r="Y1" s="7" t="inlineStr">
-        <is>
-          <t>Retailerid</t>
+      <c r="Y1" s="4" t="inlineStr">
+        <is>
+          <t>drivinglic</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DuzLJ</t>
+          <t>DPBLOyuL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>YZgBCl</t>
+          <t>HFmqifaS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6852664519</v>
+        <v>9220979797</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9mjx@d.com</t>
+          <t>lu40@8.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>DRTPB8622P</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7011998</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19012018</v>
+          <t>DSVPI8083O</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1999-09-06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>70213636589</v>
+        <v>1.157471480421448e+16</v>
       </c>
       <c r="I2" t="n">
-        <v>70213636589</v>
+        <v>1.157471480421448e+16</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>SBIN0000666</t>
+          <t>ICIC0000018</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>78154</v>
+        <v>58766</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>vkPPUA</t>
+          <t>0LHoa</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>dW1fociCa</t>
+          <t>TQl2ZBY</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>QS2Buf</t>
+          <t>gamm6gkLC</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>500034</v>
+        <v>501301</v>
       </c>
       <c r="P2" t="n">
-        <v>59039</v>
+        <v>60444</v>
       </c>
       <c r="Q2" t="n">
-        <v>235550</v>
+        <v>170489</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>SVcA@nLz9T</t>
+          <t>tjlE@7SUhl</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>EA719750821</t>
+          <t>ER216938699</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -695,103 +677,107 @@
         </is>
       </c>
       <c r="U2" t="n">
-        <v>393144162</v>
+        <v>641577489</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>NGJMa</t>
+          <t>GRixbNu</t>
         </is>
       </c>
       <c r="W2" t="n">
-        <v>9318399439</v>
+        <v>7558321306</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>zH75</t>
+          <t>wGSYO</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>OX-3070554-343</t>
+          <t>KA5111350217270</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AsRkeA</t>
+          <t>BUuoRkMR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BUluV</t>
+          <t>svbA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8255782073</v>
+        <v>6095827356</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1b51@b.com</t>
+          <t>erfr@i.com</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AEUPR9374W</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>18091986</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12072021</v>
+          <t>BYZPM5937Y</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1985-06-21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2017-03-01</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>7700193003732185</v>
+        <v>9.158874746094394e+16</v>
       </c>
       <c r="I3" t="n">
-        <v>7700193003732185</v>
+        <v>9.158874746094394e+16</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>SBIN0000573</t>
+          <t>SBIN0000768</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>67605</v>
+        <v>95517</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>BkCQy</t>
+          <t>8wroOL8C</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>l6xgAha2</t>
+          <t>NIy53H</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Wo5V6g49U</t>
+          <t>OuvsUISI</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>500045</v>
+        <v>500034</v>
       </c>
       <c r="P3" t="n">
-        <v>50375</v>
+        <v>47425</v>
       </c>
       <c r="Q3" t="n">
-        <v>219475</v>
+        <v>246187</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>KRC7A@lyx</t>
+          <t>9.v5DC@jA8</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>EK953051418</t>
+          <t>RD997051072</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -800,129 +786,7545 @@
         </is>
       </c>
       <c r="U3" t="n">
-        <v>170193336</v>
+        <v>535870054</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>qMQnbMJ</t>
+          <t>zVuq</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>6996366235</v>
+        <v>6504769982</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>MRZny</t>
+          <t>kt1N</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>YU-1180001-578</t>
+          <t>QV7885508885699</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dkoqo</t>
+          <t>BmEolMC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PcNvaJ</t>
+          <t>ekUpvN</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6671842303</v>
+        <v>7446661807</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>jwrv@v.com</t>
+          <t>3497@b.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DPTPV4137O</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>23121984</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20082023</v>
+          <t>BDTPD2733Y</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1990-08-16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2022-06-26</t>
+        </is>
       </c>
       <c r="H4" t="n">
-        <v>6551823570</v>
+        <v>2728696790</v>
       </c>
       <c r="I4" t="n">
-        <v>6551823570</v>
+        <v>2728696790</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>SBIN0005777</t>
+          <t>ICIC0000008</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>72873</v>
+        <v>37749</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>A9Utzny</t>
+          <t>hnQSy8mAXl</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>DwK2VdN</t>
+          <t>s3wJn</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Zn7ZKTAK6o</t>
+          <t>WBeVEGZfQY</t>
         </is>
       </c>
       <c r="O4" t="n">
+        <v>500030</v>
+      </c>
+      <c r="P4" t="n">
+        <v>61038</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>215253</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>4UT@XCzJ</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>LZ178648529</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>763593095</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Mfhjsi</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>9650482928</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>HVjc</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>AE6685444777310</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DDmDcO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>uoxleZR</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7643880946</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>rf4g@j.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DVRPV8076T</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1992-01-24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2021-09-17</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5652401163106465</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5652401163106465</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SBIN0021790</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>87449</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>LmtH</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4wchj0D</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>VhGX</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>500013</v>
+      </c>
+      <c r="P5" t="n">
+        <v>51751</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>158486</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>XcI@q2tu3t</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>NT584798024</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>102244314</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>CPPGGod</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>9182975031</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>rER3</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>VB2610485775215</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ASmo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hUaJEs</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9065932053</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>uqpm@9.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ACRPF1021N</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1995-04-06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2022-11-27</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3407216123397</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3407216123397</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>HDFC0000231</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>97978</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Ij7slGmJH</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>y4fSM0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0THbJ</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>500029</v>
+      </c>
+      <c r="P6" t="n">
+        <v>41391</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>166880</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>anxN@gyqV4</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>OP054411193</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>522734786</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>PTUeYq</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>9478696334</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>XyQy</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>FB2721382729259</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DPOLp</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ffRQd</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8553439555</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>a953@3.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DCJPC5830D</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2000-09-27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2018-12-15</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>148117958740365</v>
+      </c>
+      <c r="I7" t="n">
+        <v>148117958740365</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>SBIN0006818</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>64134</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>9o DJrf6</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>ekNLukU6e</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>pUslSyU</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>500022</v>
+      </c>
+      <c r="P7" t="n">
+        <v>35348</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>169731</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Xmnl@u85o</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>VP151430167</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>527820946</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>gqUdH</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>9253493209</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>6mWnq</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>XI1997575428525</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AOuoVq</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>kwGx</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9968201894</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ri3z@h.com</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>AWVPU9123B</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1991-11-06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2020-12-01</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6.825751840845574e+16</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.825751840845574e+16</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ICIC0000688</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>60597</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nKu3xx</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>eoex</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>5lHx1PSWd2</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>500005</v>
+      </c>
+      <c r="P8" t="n">
+        <v>56098</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>191328</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>LWDtuS@gg0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>FN379164300</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>821660050</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>gIyJ</t>
+        </is>
+      </c>
+      <c r="W8" t="n">
+        <v>7106580400</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>UJAN</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>IC1599490562232</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>DkJkE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HubColf</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9723932065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9zia@2.com</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DTXPK7543J</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1996-03-29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2023-05-25</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2471467122</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2471467122</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SBIN0000746</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>42136</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0oU0T</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>ZyxufY wF</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>WUo3</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>500080</v>
+      </c>
+      <c r="P9" t="n">
+        <v>30401</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>245002</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>YCdqP@okF</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>OF853132421</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>556322185</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>SVYvBSKM</t>
+        </is>
+      </c>
+      <c r="W9" t="n">
+        <v>7381454876</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Hkx2</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>NI4085418598923</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BoQaKACY</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RkBxqe</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6103676972</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1e3a@w.com</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BZBPF2832K</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1994-09-15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2018-11-10</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>72589482206</v>
+      </c>
+      <c r="I10" t="n">
+        <v>72589482206</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SBIN0000585</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>74634</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Xt9sLdOj3</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>wLcJ17nlvF</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>u4EK4</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>500013</v>
+      </c>
+      <c r="P10" t="n">
+        <v>69889</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>249660</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>HXPuM7@RlG</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>DY376307474</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>690907843</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>qXUnvM</t>
+        </is>
+      </c>
+      <c r="W10" t="n">
+        <v>8328860613</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0NynR</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>BY8996099895956</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CCIkX</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>qewVUV</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8774006311</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>rlcx@v.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CLBPA5508B</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1996-03-19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2018-06-22</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3516290282</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3516290282</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>HDFC0000032</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>43151</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>vZt9Ia</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>zZNv10Xg</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>MCs4</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>500081</v>
+      </c>
+      <c r="P11" t="n">
+        <v>55291</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>212032</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>ZuK2-s@s6</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>PH372072993</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>437469088</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>YFjGiq</t>
+        </is>
+      </c>
+      <c r="W11" t="n">
+        <v>8091713113</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>sbeRl</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>XD7437472185041</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BCSBJPa</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SltgQU</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>8300865864</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3pfv@z.com</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BERPU3509F</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1992-07-22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2024-01-01</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8.276163139234195e+16</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.276163139234195e+16</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SBIN0000468</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>75109</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>PPWy4Hog</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>WMoWqm0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Amob</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>500062</v>
+      </c>
+      <c r="P12" t="n">
+        <v>46458</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>215512</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Ybu@xxy</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>EZ145621377</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>440663515</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>jYBidxT</t>
+        </is>
+      </c>
+      <c r="W12" t="n">
+        <v>6242826901</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0GkjXP</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>OQ5963466602040</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>DPKnjN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>uzGoTYE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>9113287227</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>96yc@i.com</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DWWPF9777O</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1985-10-12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2018-08-25</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3585690391486</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3585690391486</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>SBIN0000214</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>37328</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>RXEbfmX</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>EM0BaNbO8I</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>OGA Yop</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>501301</v>
+      </c>
+      <c r="P13" t="n">
+        <v>44720</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>184913</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>5u4@d6FX</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>ST693123325</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>872595654</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>zLwR</t>
+        </is>
+      </c>
+      <c r="W13" t="n">
+        <v>9869384560</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>vKWQL</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>TD8364404365189</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>DGAbMz</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GLwWD</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>7889887725</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0qcf@v.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DPCPR0769F</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1987-11-06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2017-11-25</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>326616533115231</v>
+      </c>
+      <c r="I14" t="n">
+        <v>326616533115231</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ICIC0000787</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>67549</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2xMoQ4</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>G2R1Qs5</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>T9v0SK6YI9</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>500062</v>
+      </c>
+      <c r="P14" t="n">
+        <v>51366</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>241930</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>W36AyX@5QB</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>XD978150859</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>544339231</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>QdxgbNPz</t>
+        </is>
+      </c>
+      <c r="W14" t="n">
+        <v>9426110627</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>oWxI8</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>KT1001087065238</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AGgxW</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VKdWEjH</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>6797328837</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>u0tm@7.com</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>AHGPJ6939R</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1993-11-04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9227790752813</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9227790752813</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>SBIN0006767</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>78368</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>bY1Iq7</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>3lBg06</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>bHEPHF4</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>501201</v>
+      </c>
+      <c r="P15" t="n">
+        <v>49466</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>231760</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>xkn@x8qLrp</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>ZC412262148</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>753262021</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>NrBtQIFb</t>
+        </is>
+      </c>
+      <c r="W15" t="n">
+        <v>6939127027</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>d9jmv</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>TU7644922247108</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BqyJv</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ntsEvgw</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>7409958184</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5g21@o.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>BUKPT7172C</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1982-02-24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2018-10-04</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>495555471398658</v>
+      </c>
+      <c r="I16" t="n">
+        <v>495555471398658</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ICIC0000789</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>73898</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>CtoON</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>szEBP</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>JaPxCC</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>500039</v>
+      </c>
+      <c r="P16" t="n">
+        <v>46800</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>234502</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>6wCSx@q6r</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>XI282119091</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>666904792</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>PSDh</t>
+        </is>
+      </c>
+      <c r="W16" t="n">
+        <v>8888899798</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>OMKqbU</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>XF7460355138472</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DSRs</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>nQJlDsd</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>8121461458</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>irse@f.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>DFEPM3750Z</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1985-12-09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2023-01-01</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3537234655411</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3537234655411</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>UTIB0000123</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>83519</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2XeQo7mL</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>OkclA</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>4MENx</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>500004</v>
+      </c>
+      <c r="P17" t="n">
+        <v>54330</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>212843</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Fqzuz9@XQr</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>QJ872547550</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>967845099</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>tifV</t>
+        </is>
+      </c>
+      <c r="W17" t="n">
+        <v>6059172506</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>3FMi2w</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>TM7502206864885</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bnls</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>oyylOnI</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>6942457788</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>yxmz@8.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>BWOPL2923E</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1984-10-17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2018-02-04</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4434523981401712</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4434523981401712</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ICIC0000895</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>47181</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>zJxF</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>IBP52nL</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>ZH640blUuP</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>500029</v>
+      </c>
+      <c r="P18" t="n">
+        <v>56904</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>237434</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>nESj@4ORM</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>UR579960322</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>519203958</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>bsabII</t>
+        </is>
+      </c>
+      <c r="W18" t="n">
+        <v>7943621725</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>KGtt9</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>IO6983796021419</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CvOTwdsV</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VBTly</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>8198701581</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>cwol@l.com</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>CBCPX2269W</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1986-03-03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2018-06-18</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3616967225377</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3616967225377</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>SBIN0000193</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>85020</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>YxiMBIm</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>jdxdqc</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>D  xEkNBQy</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>500028</v>
+      </c>
+      <c r="P19" t="n">
+        <v>55870</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>234936</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>ZYixeh@k7</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>LI414661383</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>911856150</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>rMLQpVEy</t>
+        </is>
+      </c>
+      <c r="W19" t="n">
+        <v>8845167511</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>EAB9E</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>DJ5215381299108</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Axqj</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>AYaOx</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>8624124507</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3q83@d.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>AYTPQ9939F</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1986-04-22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2021-03-03</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7854413281</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7854413281</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>SBIN0000864</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>43168</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ziHJyG</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>keKHb</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>wDRqMaxSg</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>500024</v>
+      </c>
+      <c r="P20" t="n">
+        <v>60556</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>188753</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>14Xv@15g8</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>WH089569819</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>311052867</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>KBNrolo</t>
+        </is>
+      </c>
+      <c r="W20" t="n">
+        <v>8463580284</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>5VQX</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>PB9980448174949</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DlOyC</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RhXHWhpJ</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>6999396424</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>krra@c.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DYJPQ9522X</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2000-09-23</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2023-09-02</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>79116082956429</v>
+      </c>
+      <c r="I21" t="n">
+        <v>79116082956429</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>SBIN0000187</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>88713</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>MPTJ50K709</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>brli</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0XyvR</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>500030</v>
+      </c>
+      <c r="P21" t="n">
+        <v>69365</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>185103</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>P6ttQ@rQ</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>BP274740272</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>127093870</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>ySXRLqPX</t>
+        </is>
+      </c>
+      <c r="W21" t="n">
+        <v>7376247281</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>59iJ</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>XH2685833905473</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>DgtBJ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>yraN</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>9498247510</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ygj8@s.com</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>DQAPF0456W</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1988-02-14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2019-11-08</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>56882335198457</v>
+      </c>
+      <c r="I22" t="n">
+        <v>56882335198457</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>SBIN0001243</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>69877</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>bXYI1</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>T2RLZRX</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>ETjF2UOaT</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>500024</v>
+      </c>
+      <c r="P22" t="n">
+        <v>50835</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>198769</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>6yrpl@B0GG</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>FJ067744541</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>917125791</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>YITWipbP</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>8544553212</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>y7Yp</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>JI1178482441118</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AuyiDEp</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>WziHEUV</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8892359256</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>e7xb@s.com</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>AGNPX0847V</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1981-02-23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2017-09-04</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3172948416531</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3172948416531</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ICIC0000493</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>58730</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>uabi21w</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>4Pd6</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>h4RnZp</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>500062</v>
+      </c>
+      <c r="P23" t="n">
+        <v>42265</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>208231</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>sORRu@Zw</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>BP203358175</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>210714665</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>HJIV</t>
+        </is>
+      </c>
+      <c r="W23" t="n">
+        <v>8548285199</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>9ej6</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>ON9464996301034</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AIZe q</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>tDIdw</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>7809831052</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>gnmy@c.com</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ADVPF2211G</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1995-10-06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2017-09-21</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>47939072047287</v>
+      </c>
+      <c r="I24" t="n">
+        <v>47939072047287</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>SBIN0000042</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>97635</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>7D7LnApuFW</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>hNssc8</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>uhxk</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>500015</v>
+      </c>
+      <c r="P24" t="n">
+        <v>45520</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>248005</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>qQA@7Ps4U6</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>IS636123595</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>818874467</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>RxZSzw</t>
+        </is>
+      </c>
+      <c r="W24" t="n">
+        <v>7618261872</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>ASAYr</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>JU5733986160072</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BznZOGBB</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SaogRy</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>8603596362</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4wfw@g.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BIEPT5391K</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1988-08-23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2023-12-06</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>57892140580</v>
+      </c>
+      <c r="I25" t="n">
+        <v>57892140580</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>SBIN0000054</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>81271</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>3M1pa7ne</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>88137Ma</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>SwJd</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>500013</v>
+      </c>
+      <c r="P25" t="n">
+        <v>65541</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>228649</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>lq@lYy96</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>PJ237127104</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>531559173</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>TVqPf</t>
+        </is>
+      </c>
+      <c r="W25" t="n">
+        <v>6955001571</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>89twei</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>IS7074735137116</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ARbzEGT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ILMwMEb</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>9845087144</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>g4bg@y.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>AVPPX1623E</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1988-02-04</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2019-01-17</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>85240225380461</v>
+      </c>
+      <c r="I26" t="n">
+        <v>85240225380461</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ICIC0000985</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>93595</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ZTfqMe 8</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>rZ6NtV1ru</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>42jvXmGk</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>500006</v>
+      </c>
+      <c r="P26" t="n">
+        <v>30812</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>214001</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>JrdLsy@4J</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>PL874608302</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>642183540</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>vssWge</t>
+        </is>
+      </c>
+      <c r="W26" t="n">
+        <v>6331267691</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2CjB</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>CN4215183672068</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Du IVrf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rNfnn</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>8198412596</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>m1bj@g.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>DLMPV1319Y</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2000-05-19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>68766092476012</v>
+      </c>
+      <c r="I27" t="n">
+        <v>68766092476012</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>RATN0000236</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>65921</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>9Za4</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>GKco</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>GWKLlDe</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>500080</v>
+      </c>
+      <c r="P27" t="n">
+        <v>32073</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>213416</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>onHiX@fs</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>CL607872547</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>325654677</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>zyWfb</t>
+        </is>
+      </c>
+      <c r="W27" t="n">
+        <v>6297492733</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>cToz</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>PY3688047024540</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BoFl</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TXDX</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>7199721969</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>nmmx@a.com</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>BTYPL5296J</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1988-06-15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5.777275838791086e+16</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.777275838791086e+16</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>HDFC0002819</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>45256</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>O39mlA</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>DqmeYGkHu</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>aIKZNf3TS</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
         <v>500012</v>
       </c>
-      <c r="P4" t="n">
-        <v>47321</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>220758</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>vy@rMqiWr</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>VQ998568095</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="P28" t="n">
+        <v>52961</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>204100</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>YoO@6cvZU0</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>JA602069801</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
         <is>
           <t>Password@123</t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v>250383481</v>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>jLkSrLib</t>
-        </is>
-      </c>
-      <c r="W4" t="n">
-        <v>6615047571</v>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>jOyFk</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>EE-4968249-819</t>
+      <c r="U28" t="n">
+        <v>816525207</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>kZJiWnO</t>
+        </is>
+      </c>
+      <c r="W28" t="n">
+        <v>9271724287</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>xzwAp</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>PQ6096668515471</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BjvLNY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>WzSvvq</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>6240244847</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1jmo@k.com</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>BTRPY0771L</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1996-03-30</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2018-01-19</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7.541586580867346e+16</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.541586580867346e+16</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>SBIN0000682</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>56801</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>wYJjKmZLtO</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>MXOkazSm</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>o8E5oD</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>500004</v>
+      </c>
+      <c r="P29" t="n">
+        <v>58021</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>162773</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Gk-@DQ50X</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>XT328684947</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>323728806</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>jTvhz</t>
+        </is>
+      </c>
+      <c r="W29" t="n">
+        <v>9574877139</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>0VIEM</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>SR8521611161834</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AEDk</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ZMTD</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9891666803</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>j37x@l.com</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ANOPK5384T</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1993-10-24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2016-03-10</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>90897490473</v>
+      </c>
+      <c r="I30" t="n">
+        <v>90897490473</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>SBIN0000837</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>87128</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>pdVQs</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>YkiDu6h6U</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>iIcDhlpPWw</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>500018</v>
+      </c>
+      <c r="P30" t="n">
+        <v>57397</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>240328</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>M7@LdU4E</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>HU420081096</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>481313733</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>LmIsagX</t>
+        </is>
+      </c>
+      <c r="W30" t="n">
+        <v>6911339518</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>SoPS0f</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>GN2119504707743</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BlUq</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>zYif</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7762477047</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>u8hp@w.com</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>BEIPD6660N</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1981-10-30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2021-12-20</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>32773874150939</v>
+      </c>
+      <c r="I31" t="n">
+        <v>32773874150939</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>SBIN0000748</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>53904</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>ob40a4NF</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>EQDM</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>jyCq2nm6</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>500030</v>
+      </c>
+      <c r="P31" t="n">
+        <v>59769</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>244632</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>gw@MaV6l</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>BE851859142</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>915228391</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>FAXVG</t>
+        </is>
+      </c>
+      <c r="W31" t="n">
+        <v>8707671918</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>USzFqN</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>PM9556803162861</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>DDdbgvoC</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>hehg</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>6191622649</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>u86n@j.com</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>DGKPD5509E</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1997-10-21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2016-09-29</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>88694375737</v>
+      </c>
+      <c r="I32" t="n">
+        <v>88694375737</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ICIC0000256</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>69801</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>oVZ15</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>q3TU</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>C9D5</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>500004</v>
+      </c>
+      <c r="P32" t="n">
+        <v>38714</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>158820</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>2Fg0ra@u7</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>LA531541202</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>216218054</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Gcji</t>
+        </is>
+      </c>
+      <c r="W32" t="n">
+        <v>6951086039</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>TvI7Gq</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>GN5847070926680</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CMUsg</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>aYmY</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>7338944088</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ia1f@n.com</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>CYFPY9019G</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1997-11-03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2016-04-02</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4316367572892</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4316367572892</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>RATN0000011</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>52318</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>VXgr</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>r6EHin7</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>6hMy</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>500062</v>
+      </c>
+      <c r="P33" t="n">
+        <v>51073</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>246187</v>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>1HA@NCYS</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>IC505198346</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>273489404</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>UoXR</t>
+        </is>
+      </c>
+      <c r="W33" t="n">
+        <v>6869896391</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>tE9F</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>US5192283602456</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AOCm</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>JwhbnQE</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9877338463</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9hml@t.com</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>AMQPY8366Z</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2000-07-31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3.336598794259899e+16</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.336598794259899e+16</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>RATN0000073</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>31612</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>m2KSXiVP</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Ki CUwQTv</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>FsJ6Fc4GEL</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>500060</v>
+      </c>
+      <c r="P34" t="n">
+        <v>44856</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>159683</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>HP@J8kmF1</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>WG139740046</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>296098255</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>kwHLHW</t>
+        </is>
+      </c>
+      <c r="W34" t="n">
+        <v>6601911900</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>MKkEu</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>ZH8961450898706</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AFwD</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>acHjGbVx</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>6843097893</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>m3ue@e.com</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>AJRPO2757F</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1989-01-17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2018-05-18</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2317111338</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2317111338</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>SBIN0000978</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>75116</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>UaCGcjJ</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>x2MCtowTs</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>5psajG6</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>500081</v>
+      </c>
+      <c r="P35" t="n">
+        <v>53133</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>199022</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>4p6e@teC</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>IG937987997</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>912275198</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>hrkzf</t>
+        </is>
+      </c>
+      <c r="W35" t="n">
+        <v>9805303852</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>ODWg</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>QJ2256950132029</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AQofL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ZvsOzM</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>7888248971</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>p2mw@y.com</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ANWPB7220E</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1994-03-16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2016-11-08</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1140302331</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1140302331</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>RATN0000373</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>95608</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>QBCDoblS</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>HFKVK</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>KPLe</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>500018</v>
+      </c>
+      <c r="P36" t="n">
+        <v>36976</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>226417</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>NECx@ddS</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>OI369166664</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>344173663</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>SwBCv</t>
+        </is>
+      </c>
+      <c r="W36" t="n">
+        <v>7418781240</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>BhKAG4</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>ZP4984503713405</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DVlJ</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>wDEMmAID</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>9319259339</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>843m@v.com</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>DQCPC5210B</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1990-07-02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2020-09-26</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2632500374808565</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2632500374808565</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>RATN0000007</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>31753</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>XzY7Emz</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>yyLLXD8eM4</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>DyWuR2T1f</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>500016</v>
+      </c>
+      <c r="P37" t="n">
+        <v>63762</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>214015</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>hS@g2</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>AF564399851</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>195122484</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>bGyzPc</t>
+        </is>
+      </c>
+      <c r="W37" t="n">
+        <v>8955132946</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>xfiT</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>KU4056457011033</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Aewx</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>aKmwfrp</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>9147676502</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9fxs@h.com</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>AVHPK1669P</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1998-12-21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2017-01-24</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>29583191064917</v>
+      </c>
+      <c r="I38" t="n">
+        <v>29583191064917</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>SBIN0000635</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>35069</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>IVlXA</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>UIV p8Bj</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> q9wL</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>500065</v>
+      </c>
+      <c r="P38" t="n">
+        <v>42523</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>204225</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>XrEb@7w</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>GE408538430</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>612825862</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>hWQfdutA</t>
+        </is>
+      </c>
+      <c r="W38" t="n">
+        <v>6715363059</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>9ptO</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>VO7610988220733</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BLPs</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PFrTzSBq</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>8991852638</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>k9ef@7.com</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>BYFPE5673N</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1993-11-09</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2023-03-11</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2469263498040</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2469263498040</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>HDFC0000008</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>34001</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>iRXjgf</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>LRr8Nw</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>F8WW4lt</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>500004</v>
+      </c>
+      <c r="P39" t="n">
+        <v>37976</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>167668</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>KrEzd@SM</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>ET548930085</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>449213463</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>PbYenoe</t>
+        </is>
+      </c>
+      <c r="W39" t="n">
+        <v>7610069076</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>ebVJ7s</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>HA6564023323289</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DyEY</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GnFhl</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>7296866149</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>c1pf@1.com</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>DMZPW9118J</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1985-06-12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2018-06-04</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4111680943117115</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4111680943117115</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ICIC0000034</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>63123</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>95mKYQ</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>YHXbaeo</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0U7NDRGSs</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>500012</v>
+      </c>
+      <c r="P40" t="n">
+        <v>53141</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>213429</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>ZD@Y2h4zZ</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>ZR999771919</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>615986137</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>tAGQwky</t>
+        </is>
+      </c>
+      <c r="W40" t="n">
+        <v>9603268076</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>fyqL</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>NN8061843781685</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DfmiaI</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>lJMNnLCh</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>9007234284</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3upo@c.com</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>DZCPE0985T</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1987-10-06</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2021-09-06</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2191210795</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2191210795</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>SBIN0000137</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>38082</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>afCZO</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>zFMOgdT</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>8LQQNK1</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>500013</v>
+      </c>
+      <c r="P41" t="n">
+        <v>43096</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>241373</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>ox@kcwo</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>UT139336417</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>809866200</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>XGXN</t>
+        </is>
+      </c>
+      <c r="W41" t="n">
+        <v>7475638102</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>rxUTIk</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>DE6692659063035</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AWmFfLR</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Gvmn</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>7178468331</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>av7u@5.com</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>AFXPY9205L</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1981-01-27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2019-05-19</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>851984203884</v>
+      </c>
+      <c r="I42" t="n">
+        <v>851984203884</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>SBIN0000356</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>69302</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>jaVMx</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>RlHOier</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>tyr2Et</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>500022</v>
+      </c>
+      <c r="P42" t="n">
+        <v>49137</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>152198</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>I4i@NiA</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>HC093153126</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>309932809</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>MLCcqXR</t>
+        </is>
+      </c>
+      <c r="W42" t="n">
+        <v>7186705351</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>iRBXH</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>AB5524519066286</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BKOOXJyi</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>eOPeC</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>8792986810</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>stzo@w.com</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>BTPPZ2973C</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1989-01-07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2017-06-10</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5711264377116</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5711264377116</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>SBIN0000665</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>62716</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8rLz </t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>fWzo</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>wroSlL</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>500044</v>
+      </c>
+      <c r="P43" t="n">
+        <v>52610</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>237730</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Jl@bsy_Z</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>KB843852486</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>372574244</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>srIhbTZh</t>
+        </is>
+      </c>
+      <c r="W43" t="n">
+        <v>6406900557</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>QNTodk</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>XV2425667688028</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AGPawx</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NUDTuanO</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>8081904766</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6o47@2.com</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>AZOPN8013X</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1998-10-25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>2022-03-01</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>76489075936457</v>
+      </c>
+      <c r="I44" t="n">
+        <v>76489075936457</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ICIC0001130</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>48058</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>A1Kajy</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>nqnmauLH</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>VwIJZzfa</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>501301</v>
+      </c>
+      <c r="P44" t="n">
+        <v>41754</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>157033</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>wwqYde@R0</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>QP372580875</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>182181291</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Uvd</t>
+        </is>
+      </c>
+      <c r="W44" t="n">
+        <v>6827076403</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>9oEG5D</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>OY7479170665637</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DlRmqxaV</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>dwqj</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>7534482425</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>e6fo@t.com</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>DTEPP9979Y</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1985-10-24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2018-10-29</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>929293100609776</v>
+      </c>
+      <c r="I45" t="n">
+        <v>929293100609776</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>SBIN0000004</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>99027</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>SIv3edpP9</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>E FV5Mx4PA</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>GZU7NT5O</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>500015</v>
+      </c>
+      <c r="P45" t="n">
+        <v>63428</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>207530</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>CJ_Z@rf</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>HK444612790</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>289735091</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>tisdrEy</t>
+        </is>
+      </c>
+      <c r="W45" t="n">
+        <v>7420633885</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>mv8xoI</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>UF3834980586961</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BxNPscK</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MnsYe</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>8218159500</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>c2jc@f.com</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>BILPM5155L</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1986-06-04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2016-09-18</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>29485287431843</v>
+      </c>
+      <c r="I46" t="n">
+        <v>29485287431843</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ICIC0001304</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>74226</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>DjBte</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>uSr13M37</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>mSFITyyo</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>500064</v>
+      </c>
+      <c r="P46" t="n">
+        <v>54794</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>184756</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Es@ibEQS</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>EZ452153123</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>187868904</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>wQhCiJu</t>
+        </is>
+      </c>
+      <c r="W46" t="n">
+        <v>9683055766</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>OiY97M</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>KQ8818120922476</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CTDTwvaX</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>aToFP</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>6629711668</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1fc2@7.com</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>CJLPM8386U</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1981-10-23</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>14427404815</v>
+      </c>
+      <c r="I47" t="n">
+        <v>14427404815</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>HDFC0000005</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>33426</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>qE2yuy</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>9YletGs9Yy</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>QmxWd0G</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>500028</v>
+      </c>
+      <c r="P47" t="n">
+        <v>66223</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>190337</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>mFthe@nLdl</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>MW571073030</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>727156233</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>qYDETzK</t>
+        </is>
+      </c>
+      <c r="W47" t="n">
+        <v>9862273320</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>gZQkK</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>AW8220474236996</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BfgSqUQ</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FhAP</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>6024346287</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>qp5e@l.com</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>BQRPM0732L</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1998-09-28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2021-06-12</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3464601363</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3464601363</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>IDIB000K212</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>35026</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>dRLZ 2o2</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>MbSS</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>APoET</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>501301</v>
+      </c>
+      <c r="P48" t="n">
+        <v>64474</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>169693</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>gyXU@PMi</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>WM040935117</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>694639700</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>rnKNGbQ</t>
+        </is>
+      </c>
+      <c r="W48" t="n">
+        <v>6385308023</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>chtje</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>MB9931867217791</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CiDGlobZ</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TXilC</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>6912881647</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>k64b@2.com</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>CHWPL1717L</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1991-03-26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2022-03-06</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>143726384915</v>
+      </c>
+      <c r="I49" t="n">
+        <v>143726384915</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>SBIN0021978</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>59819</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>S0HdnJ3</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>22nksw0l</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> f2Kakm9fP</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>500053</v>
+      </c>
+      <c r="P49" t="n">
+        <v>48861</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>175691</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>P984@HA3o</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>YN187396719</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>583609750</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>BeOhNv</t>
+        </is>
+      </c>
+      <c r="W49" t="n">
+        <v>8508920811</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>uGlnn4</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>GG6269685937865</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>AWsNDRC</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>TXeT</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>6456126741</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9ge4@2.com</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>APYPR4549L</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1989-07-27</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1.222558250945099e+16</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.222558250945099e+16</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>RATN0000043</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>66248</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>D7sqWsB</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>AXZ2F 2H</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>6nEECmh</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>500040</v>
+      </c>
+      <c r="P50" t="n">
+        <v>56478</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>190293</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>730l@NSiK</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>SF483691457</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>617618226</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>AOAN</t>
+        </is>
+      </c>
+      <c r="W50" t="n">
+        <v>7498771758</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>CAoe6T</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>FW8377063434625</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>AGCQLnY</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ndbJ</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>9705634495</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>zqc7@n.com</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>AYHPG1941N</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1999-10-23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2017-06-15</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1457553024960</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1457553024960</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>SBIN0000984</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>79159</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>THnGP</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>r3bvKT3</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>22e6kQu8</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>500015</v>
+      </c>
+      <c r="P51" t="n">
+        <v>51298</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>225276</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>YCQ_@XgoJ</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>WR155706043</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>501568900</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>VRnEx</t>
+        </is>
+      </c>
+      <c r="W51" t="n">
+        <v>7012041695</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>sOvb</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>KL3851198821208</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CesBn</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BRnczsOv</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>8829590423</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>98i3@x.com</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>CRRPU8064Y</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1999-05-01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2022-11-12</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>16052760220</v>
+      </c>
+      <c r="I52" t="n">
+        <v>16052760220</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>SBIN0000238</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>91462</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Z70VEXLMaR</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>XfxHdoi</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>q0rd</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>501201</v>
+      </c>
+      <c r="P52" t="n">
+        <v>68493</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>199649</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>aNQSx.@qD</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>SU571400993</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>470118929</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>cXxngiv</t>
+        </is>
+      </c>
+      <c r="W52" t="n">
+        <v>9503882529</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>R40UIA</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>BL4601072033724</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BOE</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>gguqxUPL</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>7120022603</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>okbz@1.com</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>BXAPQ8832I</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1994-07-09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2021-10-21</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4435203003222634</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4435203003222634</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>RATN0000123</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>38533</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>hp Sk</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>VmJbaoq0C</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>llre65</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>500044</v>
+      </c>
+      <c r="P53" t="n">
+        <v>33092</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>246079</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>HZ@uip</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>IQ607925245</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>376011614</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>LwRXYhrY</t>
+        </is>
+      </c>
+      <c r="W53" t="n">
+        <v>9176385547</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>gGTUo</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>DM9058275818140</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DPJBe</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>DCSLzViE</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>9295352842</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>sznt@4.com</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>DXOPV1011O</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1983-11-30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2019-09-23</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>70780600622890</v>
+      </c>
+      <c r="I54" t="n">
+        <v>70780600622890</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>SBIN0000578</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>94764</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>kKE8H</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>iaxxsx69I</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>BLJagVK</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>500005</v>
+      </c>
+      <c r="P54" t="n">
+        <v>71068</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>198933</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>qV1k@DTc</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>WO068210561</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>315590275</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>kcyRS</t>
+        </is>
+      </c>
+      <c r="W54" t="n">
+        <v>6103916035</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>4MXw</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>BJ5109540247499</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CqmbsDCA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FpXnW</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>6709353803</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>yjrr@v.com</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>CZHPT0112Y</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1984-02-25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2021-06-30</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>43902832438531</v>
+      </c>
+      <c r="I55" t="n">
+        <v>43902832438531</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>RATN0000272</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>92048</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>o0rEJDAW</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>aAtsV9MSla</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Fgfam</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>500040</v>
+      </c>
+      <c r="P55" t="n">
+        <v>34245</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>228768</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>NXVn@Y0Er</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>BY059873508</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>823562625</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>iGfGaCL</t>
+        </is>
+      </c>
+      <c r="W55" t="n">
+        <v>7819032504</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>wnEz</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>OH2291719960783</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>AxAF</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>BBCBBSF</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>8706594521</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>tg5x@a.com</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>AHRPL6390T</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1987-08-30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2016-10-18</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>96338776929</v>
+      </c>
+      <c r="I56" t="n">
+        <v>96338776929</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>SBIN0000695</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>84001</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>9JUHGaZmf2</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>k0rUxL wN</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>JdPEk5</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>500062</v>
+      </c>
+      <c r="P56" t="n">
+        <v>32828</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>217230</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>0.P@XSROA</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>LE799115036</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>129594095</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>hLRTpyR</t>
+        </is>
+      </c>
+      <c r="W56" t="n">
+        <v>6563846506</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>zhwvtw</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>GW6352209561319</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AEPNQ</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Vace</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>8831164603</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4kim@6.com</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>AASPH0525H</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1984-01-03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2017-10-10</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7141595735948757</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7141595735948757</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>SBIN0000598</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>61797</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>dbjNB0zDfB</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>uzZb2Jc y</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ID8ij </t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>500024</v>
+      </c>
+      <c r="P57" t="n">
+        <v>36668</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>151754</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>jYI@vF</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>NO689139550</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>446745173</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>palzn</t>
+        </is>
+      </c>
+      <c r="W57" t="n">
+        <v>8681402706</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>ZGGAj</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>UX6246720506844</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>AhQFydV</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>yGyzJx</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>6500093971</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>kg17@n.com</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ADGPN9354T</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1998-12-30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2020-08-30</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9726714446304</v>
+      </c>
+      <c r="I58" t="n">
+        <v>9726714446304</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>SBIN0000954</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>36756</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>a925</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>yOG4p</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>GTxp3IX</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>500024</v>
+      </c>
+      <c r="P58" t="n">
+        <v>50186</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>226445</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>c0TgxY@hP3</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>NI718975024</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>238628539</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>WYUwPz</t>
+        </is>
+      </c>
+      <c r="W58" t="n">
+        <v>7632040429</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>QEUX</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>ZE8126493508064</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BaZPpDW</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>JfzvWJ</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>8809467221</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>upro@5.com</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>BMMPD6439W</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1998-11-07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2020-05-16</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>744620318834</v>
+      </c>
+      <c r="I59" t="n">
+        <v>744620318834</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>SBIN0000877</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>57970</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>nPsYf</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>XczzIceH</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>fN9TtX</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>501301</v>
+      </c>
+      <c r="P59" t="n">
+        <v>70011</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>151668</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>COuhrv@Nb</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>IC487805892</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>444591940</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>ytqJQ</t>
+        </is>
+      </c>
+      <c r="W59" t="n">
+        <v>6442855901</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>tPUt</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>VO6914831307747</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CyJI</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>aQcKnlUx</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>6806803577</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>s7ph@0.com</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>CXLPO8828S</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1986-05-14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2017-10-27</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>45284112360019</v>
+      </c>
+      <c r="I60" t="n">
+        <v>45284112360019</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ICIC0000557</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>54111</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>x6tmuu192</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1Oddx</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>saLKAl12OC</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>500060</v>
+      </c>
+      <c r="P60" t="n">
+        <v>60048</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>220902</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>m-4@b_pexU</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>IV338710931</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>336720155</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>ofUAhSpe</t>
+        </is>
+      </c>
+      <c r="W60" t="n">
+        <v>9095371343</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>dIAg5</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>IZ7581017595161</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CjtXy</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ewPz</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>8843569046</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>hn8u@n.com</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>CTIPY2921B</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1981-12-04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2020-12-31</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>492505199165043</v>
+      </c>
+      <c r="I61" t="n">
+        <v>492505199165043</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>SBIN0011118</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>99654</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>T7C0lh1W</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>2BRON3UPd</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>CVxCQoeY</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>501301</v>
+      </c>
+      <c r="P61" t="n">
+        <v>38210</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>165401</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>XT@OAs</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>WZ383425462</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
+        <v>902494553</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>muTQwI</t>
+        </is>
+      </c>
+      <c r="W61" t="n">
+        <v>6261414356</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>fNdr</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>RP3193406344719</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>AyjnKhX</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>QPPkfOR</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>6227408988</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>i5pr@t.com</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>AVLPW6643C</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1981-10-04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2021-05-31</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3563607400</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3563607400</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ICIC0000687</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>82579</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>93s1p</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>ykJff2Ib</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>8otwviUmfc</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>500045</v>
+      </c>
+      <c r="P62" t="n">
+        <v>69305</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>166215</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>BCc@qHA</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>CL760707655</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
+        <v>465952447</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>SECwiTS</t>
+        </is>
+      </c>
+      <c r="W62" t="n">
+        <v>7968260031</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Ow2k</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>HR0760025582960</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BIHj</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>eQckEls</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>8497886119</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>ce1r@s.com</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>BWBPA0123H</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1986-07-09</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>426982752941</v>
+      </c>
+      <c r="I63" t="n">
+        <v>426982752941</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ICIC0001114</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>95788</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>FkgO9oz4</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>bJAunIqb0</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>ZeXE</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>500018</v>
+      </c>
+      <c r="P63" t="n">
+        <v>34214</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>195853</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>r018Bx@Ti</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>JG568628071</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
+        <v>649459489</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>xRHE</t>
+        </is>
+      </c>
+      <c r="W63" t="n">
+        <v>7395033395</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>F3Imn</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>WI9543182809828</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BBDj</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>iIxnrPo</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>9675773831</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3fgm@3.com</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>BHTPE8954W</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1987-02-20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2022-02-14</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>91125623363627</v>
+      </c>
+      <c r="I64" t="n">
+        <v>91125623363627</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ICIC0004039</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>44535</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>9lamV1ROcu</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>WHPMyxH</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>dfgR4TJ</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>500028</v>
+      </c>
+      <c r="P64" t="n">
+        <v>50330</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>223708</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>374em@Ulr</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>CC484023562</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
+        <v>598945542</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>vohSUlLX</t>
+        </is>
+      </c>
+      <c r="W64" t="n">
+        <v>8509180361</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>4pwAd9</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>YA7116599767219</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>DclX</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>nnrxBY</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>8799057444</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6o0w@6.com</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>DYEPH2483W</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1986-02-16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2017-01-08</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>784202080808</v>
+      </c>
+      <c r="I65" t="n">
+        <v>784202080808</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>SBIN0000684</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>52736</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>TN UQpn</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>ckw6Vd</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>1Qoz</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>500058</v>
+      </c>
+      <c r="P65" t="n">
+        <v>43054</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>234949</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>l9gBK-@io</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>WY913594958</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
+        <v>835361387</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>VQnBba</t>
+        </is>
+      </c>
+      <c r="W65" t="n">
+        <v>9481828620</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>QDCisq</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>XT6003306986734</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>BKnurapD</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>KKymPU</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>8139345238</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>ocd4@p.com</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>BVGPV8871K</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1988-11-15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2023-09-30</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6801005928567319</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6801005928567319</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>HDFC0008456</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>45078</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>B0ztrW</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>nRrd</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>R5sIh</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>500015</v>
+      </c>
+      <c r="P66" t="n">
+        <v>63263</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>180684</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>WcS3V@daQ</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>KZ112233561</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
+        <v>437715431</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>jhNqG</t>
+        </is>
+      </c>
+      <c r="W66" t="n">
+        <v>8702184141</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>7gQhDm</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>PA8210657807067</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>DRvuDypX</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>kPUgh</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>9226086328</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4wia@v.com</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>DIFPQ1783A</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1988-05-17</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2018-12-20</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>288085519048</v>
+      </c>
+      <c r="I67" t="n">
+        <v>288085519048</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>SBIN0000313</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>36445</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>X0os1O9k</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>qTc0Gi302I</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>LwUA</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>500001</v>
+      </c>
+      <c r="P67" t="n">
+        <v>36378</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>155287</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>7QaWN@Xm</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>TW886134812</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
+        <v>606982769</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>AQTC</t>
+        </is>
+      </c>
+      <c r="W67" t="n">
+        <v>7790180236</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>BQeNY</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>IR8853457712773</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>DkmiWNG</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>JSsayI</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>8171977856</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>qhpa@h.com</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>DMBPL6685U</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1982-03-17</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2018-08-02</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8.069020603826576e+16</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8.069020603826576e+16</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>SBIN0000045</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>71296</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>PhCff46w0</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>TQDxzeygv</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>06EJ</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>500062</v>
+      </c>
+      <c r="P68" t="n">
+        <v>41375</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>210670</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>bFsR@PdHoS</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>TX588296929</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
+        <v>840151049</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>CCMPGzI</t>
+        </is>
+      </c>
+      <c r="W68" t="n">
+        <v>7759752254</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>uXLPYx</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>BJ4961128717534</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>DJFAA</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>neWZzF</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>7491368456</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>obw0@w.com</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>DVCPA7545I</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1998-02-11</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5.723477639744335e+16</v>
+      </c>
+      <c r="I69" t="n">
+        <v>5.723477639744335e+16</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>SBIN0000138</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>94061</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>v6thQLM</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>YgGY2EcA</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>4soohVky</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>501301</v>
+      </c>
+      <c r="P69" t="n">
+        <v>48164</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>192791</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>kF@uoi</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>GF055476921</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
+        <v>955178718</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>RXIxzjcC</t>
+        </is>
+      </c>
+      <c r="W69" t="n">
+        <v>6992601623</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>v3Dq</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>XG7353297135771</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>DKsKEz</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>HWkm</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>9027747882</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>i3xj@t.com</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>DZYPM2054B</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1991-05-08</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2471806165</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2471806165</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>SBIN0000283</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>68559</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>3KLIQzrjU</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>WiTTPJKV</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>N0TRSQrP</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>501301</v>
+      </c>
+      <c r="P70" t="n">
+        <v>35840</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>182067</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Wcb@MX</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>NY280023398</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
+        <v>895169813</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>wSLXt</t>
+        </is>
+      </c>
+      <c r="W70" t="n">
+        <v>8218050702</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>5W5NH</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>JO8246239848845</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Drgl</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>RXEaOu</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>7338980152</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>oit6@i.com</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>DXTPK3122R</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1998-10-13</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2023-08-22</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>18316707164</v>
+      </c>
+      <c r="I71" t="n">
+        <v>18316707164</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>RATN0000242</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>41367</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>uNg0Vc3sPX</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>cWIxul</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Vdot3DUAX</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>501301</v>
+      </c>
+      <c r="P71" t="n">
+        <v>36707</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>186584</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>YQrLV@skp</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>VZ804250718</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
+        <v>169055154</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>WbbOsD</t>
+        </is>
+      </c>
+      <c r="W71" t="n">
+        <v>7493424815</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>jO1fxy</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>TE5455931929488</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CSlkZ cr</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>avayHn</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>8720512752</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>c41t@k.com</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>CEFPG2973J</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1986-11-29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2022-01-24</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>87355376996</v>
+      </c>
+      <c r="I72" t="n">
+        <v>87355376996</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ICIC0000989</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>65288</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>lL0XoT</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>tcUaBs2h</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>9WGkWb</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>500015</v>
+      </c>
+      <c r="P72" t="n">
+        <v>47070</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>225520</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>GoWDn@tyG</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>EW790161308</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Password@123</t>
+        </is>
+      </c>
+      <c r="U72" t="n">
+        <v>912130851</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>TKeX</t>
+        </is>
+      </c>
+      <c r="W72" t="n">
+        <v>7297139778</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>5eFD</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>UV3331132412287</t>
         </is>
       </c>
     </row>
